--- a/ImportExcelExample.xlsx
+++ b/ImportExcelExample.xlsx
@@ -82,13 +82,14 @@
     <definedName name="VALOR_FOB_US" localSheetId="0">'Sheet1'!$BT$2:$BT$7</definedName>
     <definedName name="BOOKING" localSheetId="0">'Sheet1'!$BU$2:$BU$7</definedName>
     <definedName name="LINEA_ORDEN_DE_COMPRA" localSheetId="0">'Sheet1'!$BV$2:$BV$7</definedName>
+    <definedName name="HOLI" localSheetId="0">'Sheet1'!$BW$2:$BW$7</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
   <si>
     <t>LOTE</t>
   </si>
@@ -310,6 +311,9 @@
   </si>
   <si>
     <t>LINEA ORDEN DE COMPRA</t>
+  </si>
+  <si>
+    <t>HOLI</t>
   </si>
   <si>
     <t>SMR19116</t>
@@ -503,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:BV7"/>
+  <dimension ref="A1:BW7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -583,6 +587,7 @@
     <col min="72" max="72" width="35" customWidth="1"/>
     <col min="73" max="73" width="35" customWidth="1"/>
     <col min="74" max="74" width="35" customWidth="1"/>
+    <col min="75" max="75" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -808,6 +813,9 @@
       <c r="BV1" s="4" t="s">
         <v>73</v>
       </c>
+      <c r="BW1" s="0" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1">
@@ -817,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D2" s="9">
         <v>44421.43035879629</v>
@@ -1015,22 +1023,25 @@
         <v>130813793214</v>
       </c>
       <c r="BQ2" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BR2" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="BS2" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="BT2" s="7">
         <v>440469.52</v>
       </c>
       <c r="BU2" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="BV2" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="BW2" s="0">
+        <v>1432312</v>
       </c>
     </row>
     <row r="3">
@@ -1041,7 +1052,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D3" s="9">
         <v>44421.43054398148</v>
@@ -1233,28 +1244,31 @@
         <v>878286</v>
       </c>
       <c r="BO3" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="BP3" s="8">
         <v>130813704214</v>
       </c>
       <c r="BQ3" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="BR3" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="BS3" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="BT3" s="7">
         <v>85769.23</v>
       </c>
       <c r="BU3" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="BV3" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="BW3" s="0">
+        <v>1430510</v>
       </c>
     </row>
     <row r="4">
@@ -1265,7 +1279,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D4" s="9">
         <v>44421.43071759259</v>
@@ -1457,28 +1471,31 @@
         <v>1049489</v>
       </c>
       <c r="BO4" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="BP4" s="8">
         <v>130813702214</v>
       </c>
       <c r="BQ4" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="BR4" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="BS4" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="BT4" s="7">
         <v>106527.2010130181</v>
       </c>
       <c r="BU4" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="BV4" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="BW4" s="0">
+        <v>1431544</v>
       </c>
     </row>
     <row r="5">
@@ -1489,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D5" s="9">
         <v>44393.75101851852</v>
@@ -1681,28 +1698,31 @@
         <v>4462542</v>
       </c>
       <c r="BO5" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="BP5" s="8">
         <v>130811622214</v>
       </c>
       <c r="BQ5" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="BR5" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="BS5" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="BT5" s="7">
         <v>50324.47</v>
       </c>
       <c r="BU5" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="BV5" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="BW5" s="0">
+        <v>1431902</v>
       </c>
     </row>
     <row r="6">
@@ -1713,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D6" s="9">
         <v>44412.68068287037</v>
@@ -1905,28 +1925,31 @@
         <v>6967366</v>
       </c>
       <c r="BO6" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="BP6" s="8">
         <v>130810718214</v>
       </c>
       <c r="BQ6" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="BR6" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="BS6" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="BT6" s="7">
         <v>50324.4700000001</v>
       </c>
       <c r="BU6" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="BV6" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="BW6" s="0">
+        <v>1431735</v>
       </c>
     </row>
     <row r="7">
@@ -1937,7 +1960,7 @@
         <v>0</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D7" s="9">
         <v>44358.59005787037</v>
@@ -2129,28 +2152,31 @@
         <v>-3778884</v>
       </c>
       <c r="BO7" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="BP7" s="8">
         <v>130809088214</v>
       </c>
       <c r="BQ7" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="BR7" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="BS7" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="BT7" s="7">
         <v>2651.78536902376</v>
       </c>
       <c r="BU7" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="BV7" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="BW7" s="0">
+        <v>1412568</v>
       </c>
     </row>
   </sheetData>
